--- a/Data/COM/COM Ports.xlsx
+++ b/Data/COM/COM Ports.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trond\Desktop\Nexus Config Tool V1.0\Data\COM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\NexusConfigTool\Data\COM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985CD27F-3723-40C1-9EBA-B50B478400BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C4A7EF-8419-4841-82B9-97CF307127C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="2325" windowWidth="38610" windowHeight="15315" xr2:uid="{105DB652-5FE4-4BE5-AD10-4DF1B2E539A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{105DB652-5FE4-4BE5-AD10-4DF1B2E539A4}"/>
   </bookViews>
   <sheets>
     <sheet name="COM Ports" sheetId="1" r:id="rId1"/>
@@ -203,6 +203,14 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -212,16 +220,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -563,59 +563,65 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="4"/>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="K5" s="4"/>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -624,28 +630,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="7">
+      <c r="C6" s="2">
         <v>9600</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="7">
+      <c r="F6" s="2">
         <v>9600</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H6" s="4"/>
-      <c r="I6" s="7">
+      <c r="I6" s="2">
         <v>9600</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K6" s="4"/>
-      <c r="L6" s="7">
+      <c r="L6" s="2">
         <v>9600</v>
       </c>
     </row>
@@ -654,28 +660,28 @@
         <v>3</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="8">
+      <c r="C7" s="3">
         <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="8">
+      <c r="F7" s="3">
         <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="8">
+      <c r="I7" s="3">
         <v>1</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="4"/>
-      <c r="L7" s="8">
+      <c r="L7" s="3">
         <v>1</v>
       </c>
     </row>
@@ -684,28 +690,28 @@
         <v>2</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H8" s="4"/>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="3" t="s">
         <v>1</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="K8" s="4"/>
-      <c r="L8" s="8" t="s">
+      <c r="L8" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -714,33 +720,45 @@
         <v>0</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="6">
+      <c r="C9" s="1">
         <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="6">
+      <c r="F9" s="1">
         <v>8</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H9" s="4"/>
-      <c r="I9" s="6">
+      <c r="I9" s="1">
         <v>8</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="K9" s="4"/>
-      <c r="L9" s="6">
+      <c r="L9" s="1">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="G9:H9"/>
@@ -753,18 +771,6 @@
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="J8:K8"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
